--- a/src/attributions/attributions_ig_traj_57.xlsx
+++ b/src/attributions/attributions_ig_traj_57.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,127 +1573,127 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.0165478356415549</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0100343987189025</v>
+        <v>0.09251270468370994</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1076865773777625</v>
+        <v>-0.03581984660795638</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1473945436557458</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>-0.05318271004633383</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1029838630859942</v>
+        <v>0.001173440626388868</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.00450297669538165</v>
+        <v>0.009236208525062403</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002162447912273953</v>
+        <v>-0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1419835718568222</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03514204311405335</v>
+        <v>-0.06978970756591366</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0455187081212589</v>
+        <v>-0.1157493760699927</v>
       </c>
       <c r="X3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>-0</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.006913223039293717</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0.1453650348554014</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.05298071925818437</v>
+        <v>0.002852905360333722</v>
       </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.09957022996797636</v>
+        <v>0.1201215306931896</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.07267918605849809</v>
+        <v>-0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>-0.008819984106430782</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.02664910644236643</v>
+        <v>-0.06692815861209042</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.005735697422803292</v>
+        <v>-0.0877393386949863</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
@@ -1702,28 +1702,28 @@
         <v>-0</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.02917816408055231</v>
+        <v>-0</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.02079347542585685</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.1755857323655521</v>
+        <v>0.2507405061923292</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1573073192591175</v>
+        <v>0.3004649740485236</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,76 +1732,76 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2109050366492026</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0.01556985065136006</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.002165334657732773</v>
+        <v>-0.03789524597620382</v>
       </c>
       <c r="BF3" t="n">
         <v>-0</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.003590800167751108</v>
+        <v>-0.009412988236332716</v>
       </c>
       <c r="BH3" t="n">
         <v>-0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.01101668009181526</v>
+        <v>-0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0.04928950074687641</v>
       </c>
       <c r="BM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.08381382361838439</v>
+        <v>-0.01138171734693251</v>
       </c>
       <c r="BO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.05996996701476262</v>
+        <v>0.339046757253494</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS3" t="n">
         <v>0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.04970284809980081</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>-0.0579557565523086</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.03171146006965903</v>
+        <v>0.1600242289066531</v>
       </c>
       <c r="BX3" t="n">
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1916487644286965</v>
+        <v>0.0216198095718745</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1810,52 +1810,52 @@
         <v>-0</v>
       </c>
       <c r="CB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.2269518172296804</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>-0.04521194016274224</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0534321696965003</v>
+        <v>-0.05211166868981838</v>
       </c>
       <c r="CG3" t="n">
         <v>0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.07676065646447322</v>
+        <v>0.07431366421146</v>
       </c>
       <c r="CI3" t="n">
         <v>-0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.05019619985857933</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>0.01055057143482683</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.004255856196956402</v>
+        <v>0.1010634125467394</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.1203763499850651</v>
+        <v>-0.1841477987487276</v>
       </c>
       <c r="CR3" t="n">
         <v>-0</v>
@@ -1867,49 +1867,49 @@
         <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1059389623354113</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0.05961888850836719</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.05420242878590994</v>
+        <v>-0.009507280645217452</v>
       </c>
       <c r="CY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.09729465652544236</v>
+        <v>0.05394701328976186</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.05821744671287446</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>-0.02264465818045344</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.127888709748485</v>
+        <v>-0.00319099623972873</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.07566617437022216</v>
+        <v>-0.07120369537131155</v>
       </c>
       <c r="DJ3" t="n">
         <v>-0</v>
@@ -1918,28 +1918,28 @@
         <v>-0</v>
       </c>
       <c r="DL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.002300499958148186</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>0</v>
+        <v>0.05791016629335367</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.09089284108173767</v>
+        <v>-0.1288551858776961</v>
       </c>
       <c r="DQ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.09828887889063612</v>
+        <v>0.2156429940893989</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
         <v>0</v>
@@ -1948,22 +1948,22 @@
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>-0.008706410804020542</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.02515443859299316</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.01382072212701436</v>
+        <v>-0.08599299931315163</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>-0.009784237455788325</v>
+        <v>0.02925609541819817</v>
       </c>
       <c r="EB3" t="n">
         <v>-0</v>
@@ -1972,154 +1972,154 @@
         <v>0</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.08414026699405601</v>
+        <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.02183187866794577</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0394469438852808</v>
+        <v>-0.07580476236690413</v>
       </c>
       <c r="EI3" t="n">
         <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.0150622033131951</v>
+        <v>-0.01183651336059511</v>
       </c>
       <c r="EK3" t="n">
         <v>0</v>
       </c>
       <c r="EL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>-0.05690066382398125</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0.009442250505798685</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.002786558039100527</v>
+        <v>-0.04996295773553463</v>
       </c>
       <c r="ER3" t="n">
         <v>-0</v>
       </c>
       <c r="ES3" t="n">
-        <v>-0.07278654284940861</v>
+        <v>0.03570637169634928</v>
       </c>
       <c r="ET3" t="n">
         <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.01890454915412497</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>-0.03017663912756484</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.0574868372285153</v>
+        <v>-0.01595298077824562</v>
       </c>
       <c r="FA3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.06196125698819343</v>
+        <v>0.01469099538902749</v>
       </c>
       <c r="FC3" t="n">
         <v>-0</v>
       </c>
       <c r="FD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE3" t="n">
         <v>-0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.06622161866968218</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0</v>
+        <v>0.02728293392741108</v>
       </c>
       <c r="FH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FI3" t="n">
-        <v>-0.03187385039358063</v>
+        <v>0.02215652435822936</v>
       </c>
       <c r="FJ3" t="n">
         <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.04294214311860586</v>
+        <v>-0.01384466710141296</v>
       </c>
       <c r="FL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.1506658295927563</v>
+        <v>-0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>-0.0515307355836095</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>-0.04069331264568704</v>
+        <v>0.001601068407487196</v>
       </c>
       <c r="FS3" t="n">
         <v>-0</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.0002441577673360796</v>
+        <v>0.003784375473705488</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX3" t="n">
-        <v>2.090604844216286e-05</v>
+        <v>-0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>0.009091925585226987</v>
       </c>
       <c r="FZ3" t="n">
         <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.06842751681346028</v>
+        <v>-0.1221554446738563</v>
       </c>
       <c r="GB3" t="n">
         <v>0</v>
@@ -2128,87 +2128,87 @@
         <v>-0</v>
       </c>
       <c r="GD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE3" t="n">
         <v>0</v>
       </c>
       <c r="GF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.04670107412139677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.1769141691373282</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01253244327686556</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.03547442284495452</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02157861991797546</v>
+        <v>-0.05250135630047162</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07322479141749962</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.03514290535916871</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02801418368854114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.07453201941426617</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0001888601081275594</v>
+        <v>-0.00124685963483661</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01682274584813132</v>
+        <v>-0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.1395005232269579</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02467013554652527</v>
+        <v>-0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.0345413483183882</v>
       </c>
       <c r="W4" t="n">
-        <v>0.03455268722939247</v>
+        <v>0.06677882523252285</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,25 +2217,25 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.006932248274344293</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
         <v>-0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.03540779277167509</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.01440068732991279</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.00902500285949318</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.05510846304550997</v>
+        <v>-0.01875219553596915</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
@@ -2244,25 +2244,25 @@
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.04035274512157313</v>
+        <v>-0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.04766882794987437</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01932243510709503</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.04749595898476382</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.02896873852925276</v>
+        <v>-0.01045377313087655</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -2271,28 +2271,28 @@
         <v>-0</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.002543295147051823</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.3179084804754029</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.06043912282657495</v>
+        <v>-0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>0.007358799718690596</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.01395064749462941</v>
+        <v>0.1622862111737901</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0</v>
@@ -2301,25 +2301,25 @@
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.09246901003815088</v>
+        <v>-0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>-0.008135523183950109</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.002110741801320286</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.04721626989433253</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.002327662435937224</v>
+        <v>-0.05232170778722415</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
         <v>-0</v>
@@ -2328,22 +2328,22 @@
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.003484845560289539</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.005175019908891869</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.05791164049376565</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.09591580157690766</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.03222050907625441</v>
+        <v>0.01894621156310998</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
@@ -2352,28 +2352,28 @@
         <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.0254749009911475</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.2013104234906691</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.008827177742824363</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>0.01002228107675121</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.01430851377778098</v>
+        <v>0.01701856875139733</v>
       </c>
       <c r="BZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA4" t="n">
         <v>-0</v>
@@ -2382,22 +2382,22 @@
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.0788160499505077</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.06527180085320139</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.02291279235010864</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.008942176375758708</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.01238811014755354</v>
+        <v>-0.008388509446716798</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,49 +2409,49 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.02405957324380531</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>0.02502134489524391</v>
       </c>
       <c r="CO4" t="n">
-        <v>-0.005827072738516114</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.1101819345973414</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.02235131253290622</v>
+        <v>-0.1678967460662011</v>
       </c>
       <c r="CR4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.06030520143303395</v>
+        <v>-0</v>
       </c>
       <c r="CV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW4" t="n">
-        <v>-0</v>
+        <v>-0.05713667105578805</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01415859865453901</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.03969563671093444</v>
       </c>
       <c r="CZ4" t="n">
-        <v>-0.01979526393241804</v>
+        <v>-0.0005977110587127429</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2460,25 +2460,25 @@
         <v>0</v>
       </c>
       <c r="DC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.02341534968729945</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
         <v>-0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.07611692075170939</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.007944565685766136</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.002903700233366016</v>
       </c>
       <c r="DI4" t="n">
-        <v>-0.0008630150050588061</v>
+        <v>-0.0007037000048354464</v>
       </c>
       <c r="DJ4" t="n">
         <v>-0</v>
@@ -2490,25 +2490,25 @@
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.02615894116445356</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.06726373859812122</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.02165185055632472</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>0.070287755630964</v>
       </c>
       <c r="DR4" t="n">
-        <v>-0.01845245378606747</v>
+        <v>-0.01554228914600811</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
@@ -2517,103 +2517,103 @@
         <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.03569290545625396</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>0.08579034667661635</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.01831118398244566</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.06534164346714073</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.01411008358119487</v>
+        <v>-0.03007933174490951</v>
       </c>
       <c r="EB4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.01998183864430421</v>
+        <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.03572276734625129</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01066765993640311</v>
+        <v>-0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.05856107820401633</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.02886377440610923</v>
+        <v>0.007170718260827645</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL4" t="n">
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.02952664628981273</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0.002399073350241516</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.003796989011412684</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.0201611910035379</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.03916882234223522</v>
+        <v>-0.02629098148441366</v>
       </c>
       <c r="ET4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU4" t="n">
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.03997539238344532</v>
+        <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.05594406826065189</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01710688350768922</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.0176852866887575</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.005698504602737247</v>
+        <v>-0.02044012005286054</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2622,55 +2622,55 @@
         <v>-0</v>
       </c>
       <c r="FE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.0271225545827967</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.01230417447937243</v>
       </c>
       <c r="FI4" t="n">
-        <v>-0.01796480425527781</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.03578787378314221</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.01853015370426342</v>
+        <v>-0.00646202468537577</v>
       </c>
       <c r="FL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.05036666518379172</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0</v>
+        <v>2.240624068975646e-05</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0004472081393154971</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>0.007162485489215407</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0002304613187962301</v>
+        <v>0.0002515261380283544</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV4" t="n">
         <v>-0</v>
@@ -2679,177 +2679,177 @@
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.000401862100638899</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>-0.008267417977869699</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0212353629783506</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.02493180831989471</v>
       </c>
       <c r="GC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD4" t="n">
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.02000604901958217</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.0246382846864979</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02575313139536426</v>
+        <v>-0.02170213333201119</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.01790289989999231</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01321244035451384</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07815587680436474</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.003557302652537437</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01301897468446806</v>
+        <v>-0.005564694564928286</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0.004915023675198949</v>
       </c>
       <c r="P5" t="n">
-        <v>0.00800812705309701</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>-0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02835626515604048</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>-0.005428272642630208</v>
       </c>
       <c r="U5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04134221640929085</v>
+        <v>-0.01451852593159346</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.01492527076926112</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.03229076806520683</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
         <v>-0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0111621642384794</v>
+        <v>-0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.01349825327156486</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.07241022757978835</v>
+        <v>0.01158199909639738</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0.009971130444878981</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02223639543130119</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.02568140338480316</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.004713138998804832</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
         <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.0282085255523364</v>
+        <v>-0.009543345915007872</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.003980071124573996</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.003139960505300688</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.002034826676248541</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.03263028927996969</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,187 +2858,187 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.02681887761045662</v>
+        <v>-0.02672524172020946</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.008899957065424902</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.03268790986496319</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.09408161537190259</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.008074388345051564</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
         <v>-0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.02805844822522109</v>
+        <v>-0.00667692462005877</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.004868253487557885</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.006183651073441178</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.003707156445271785</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.02778998063162158</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.03128913117790098</v>
+        <v>0.01108360967937973</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-0</v>
+        <v>0.004760713280878709</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.01792458282678652</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.03143342864487676</v>
+        <v>0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.01356723175359652</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.03978053621518973</v>
+        <v>-0.0181103577653055</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.004808711757081538</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.008488618396759351</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.07815793590070085</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.002559398512112235</v>
       </c>
       <c r="CF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.00358059467860045</v>
+        <v>0.00890120432699653</v>
       </c>
       <c r="CI5" t="n">
-        <v>-0</v>
+        <v>0.01114019854395732</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.002815272094475848</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.01959193853051122</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.003143339475302534</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.04828141684176853</v>
+        <v>0.001756838064191319</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.002098950785298842</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.02981338440185966</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.03094000077723036</v>
+        <v>0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>0.001718484032464188</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>-0.004735232576021611</v>
+        <v>0.008500728644818335</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.01453676011040398</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.007507251834587603</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.02155767392498886</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>0.009948972151127998</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,160 +3047,160 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.01640750426131756</v>
+        <v>0.01124590251775315</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-0.0005191714653895506</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.003517333732619128</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.007070302850941515</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.006344138868993045</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
         <v>0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.04076191200256475</v>
+        <v>0.01621298088989745</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.008780438793183262</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.003269198796096614</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.01973753710281826</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.01146795954125725</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
         <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0096638806014853</v>
+        <v>-0.01268731319312856</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0.005156288099438249</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.01696567045297911</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
         <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0.00966212164376984</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>0.00135907380016917</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0468154152075331</v>
+        <v>-0.006976271204875152</v>
       </c>
       <c r="EK5" t="n">
-        <v>-0</v>
+        <v>0.01164784251840299</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.01366330847458716</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.02520340261458239</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
         <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.006637788976916649</v>
       </c>
       <c r="EQ5" t="n">
         <v>-0</v>
       </c>
       <c r="ER5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.03447428607744215</v>
+        <v>0.01879710806216644</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.009082040087733162</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.03261048446215612</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.02601528230784293</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>0.003831325547453962</v>
       </c>
       <c r="EZ5" t="n">
         <v>-0</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB5" t="n">
-        <v>-0.003585596829408521</v>
+        <v>0.008205497597745852</v>
       </c>
       <c r="FC5" t="n">
-        <v>-0</v>
+        <v>0.0133022939615585</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.008991595183864897</v>
+        <v>0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.02122566680825185</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
         <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.01210236285996421</v>
       </c>
       <c r="FI5" t="n">
         <v>0</v>
@@ -3209,25 +3209,25 @@
         <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.03527898073612228</v>
+        <v>-0.02448250418387643</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01179747520130032</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.04071765403900825</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.03457848641213686</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.001793376446527902</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,46 +3236,46 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.004073637525510456</v>
+        <v>0.0003382721302701826</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.01652146467425799</v>
       </c>
       <c r="FV5" t="n">
-        <v>-0.0005051977944488834</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.008346799492279245</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.01505573197770971</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>0.001247676088577948</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02452833427323124</v>
+        <v>0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.03315238211508691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,70 +3852,70 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5240050181746275</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04413134275801089</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1593230783055908</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04150533497699693</v>
+        <v>-0.06170465786209694</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1289872673033594</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.2029704809759629</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006588474163569419</v>
+        <v>-0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.02430211905929879</v>
       </c>
       <c r="N7" t="n">
-        <v>0.007284837318092294</v>
+        <v>-0.05776479314737541</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.06166759302076893</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>-0</v>
+        <v>0.1595293035165157</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03088638024860761</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.04459931226870895</v>
       </c>
       <c r="W7" t="n">
-        <v>0.09788772218437709</v>
+        <v>-0.01602495369741461</v>
       </c>
       <c r="X7" t="n">
         <v>-0</v>
@@ -3924,52 +3924,52 @@
         <v>-0</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01915498474851942</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.1367700752266863</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.02606552950605319</v>
+        <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>-0.05238691700598459</v>
       </c>
       <c r="AF7" t="n">
-        <v>-0.07401676609598166</v>
+        <v>0.02007454808388161</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
         <v>-0</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.07133063865016109</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.07763700476008262</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.01973535291496887</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.04990302267142586</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.03153282040972095</v>
+        <v>-0.03849326532723033</v>
       </c>
       <c r="AP7" t="n">
         <v>0</v>
@@ -3981,76 +3981,76 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.002905843325665391</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>0.6382929046585363</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.1313104806827663</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>0</v>
+        <v>-0.03424023045981445</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.04808339261118509</v>
+        <v>0.2036678185012741</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1314724889253409</v>
+        <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0</v>
+        <v>0.04892885060935398</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0.01288578090114236</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>-0</v>
+        <v>-0.05335945796528801</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.007623856724457715</v>
+        <v>-0.1264989227884409</v>
       </c>
       <c r="BH7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>-0.01540568729127647</v>
+        <v>0</v>
       </c>
       <c r="BL7" t="n">
         <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>-0</v>
+        <v>0.08253545841052133</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.07297268240295868</v>
+        <v>-0</v>
       </c>
       <c r="BO7" t="n">
-        <v>-0</v>
+        <v>0.1596497638023737</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.03969664772222634</v>
+        <v>0.05132927603652227</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
@@ -4059,25 +4059,25 @@
         <v>-0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
-        <v>-0.02845005450647938</v>
+        <v>-0</v>
       </c>
       <c r="BU7" t="n">
         <v>-0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.3736434462475011</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.007868662395354491</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.01837233969888071</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.05335869647307459</v>
+        <v>-0.0254715544824739</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
@@ -4089,22 +4089,22 @@
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.1081818329754974</v>
+        <v>0</v>
       </c>
       <c r="CD7" t="n">
         <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.140277721093773</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.02883035548194418</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>0.03256674249381958</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.01216473744840109</v>
+        <v>-0.04914092268112367</v>
       </c>
       <c r="CI7" t="n">
         <v>-0</v>
@@ -4116,49 +4116,49 @@
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0.03365358851796123</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
         <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>0</v>
+        <v>-0.02266788635122562</v>
       </c>
       <c r="CO7" t="n">
-        <v>-0.005852553719321593</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>0</v>
+        <v>-0.1856523105192667</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.0226808334396667</v>
+        <v>-0.2074608300995207</v>
       </c>
       <c r="CR7" t="n">
         <v>0</v>
       </c>
       <c r="CS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.09347670802841154</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.1146329148598412</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.01435548187438846</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>0</v>
+        <v>0.07998004903119892</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01844237168146079</v>
+        <v>-0.04032689156039905</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
@@ -4167,25 +4167,25 @@
         <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>-0.0356398629840589</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
         <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.06205802427034269</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0.01376456575900482</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>-0</v>
+        <v>-0.01504693895859018</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.001422814295269084</v>
+        <v>0.006037568123016815</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
@@ -4197,76 +4197,76 @@
         <v>0</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.03262572950178956</v>
+        <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.0999239970634843</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.008376619265274735</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>0.05433779910405088</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.005150747268788918</v>
+        <v>-0.02199358067903187</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
         <v>-0</v>
       </c>
       <c r="DU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.03610081550745605</v>
+        <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.05077279300809025</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.02381224214781156</v>
+        <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.1027088729147458</v>
       </c>
       <c r="EA7" t="n">
-        <v>-0.02548765983524101</v>
+        <v>-0.07862587995487931</v>
       </c>
       <c r="EB7" t="n">
         <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
         <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0.02714407226317333</v>
+        <v>-0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.06319016201484193</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.00494223302759582</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>0</v>
+        <v>0.08121842146922628</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03827023299795705</v>
+        <v>-0.003389979154422258</v>
       </c>
       <c r="EK7" t="n">
         <v>-0</v>
@@ -4275,52 +4275,52 @@
         <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
-        <v>-0.04136791091233883</v>
+        <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>-0.1100042572335998</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.02117434130941573</v>
+        <v>-0</v>
       </c>
       <c r="ER7" t="n">
-        <v>-0</v>
+        <v>-0.07576907309757128</v>
       </c>
       <c r="ES7" t="n">
-        <v>-0.05966489967936619</v>
+        <v>-0.08676168439332299</v>
       </c>
       <c r="ET7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU7" t="n">
         <v>-0</v>
       </c>
       <c r="EV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW7" t="n">
-        <v>-0.05880069468569049</v>
+        <v>-0</v>
       </c>
       <c r="EX7" t="n">
         <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.1247364761546657</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0209138598907989</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>-0</v>
+        <v>0.05110294463194975</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.001807149390564974</v>
+        <v>-0.05280062198093898</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
@@ -4329,55 +4329,55 @@
         <v>-0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0.04315500019046584</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.006438135901138674</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.03146534526749986</v>
+        <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>0.1036995349260583</v>
       </c>
       <c r="FK7" t="n">
-        <v>-0.0134315200835325</v>
+        <v>-0.03378268059934897</v>
       </c>
       <c r="FL7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0.0573355180916118</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.01266896391452392</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.01047556311863767</v>
+        <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>-0.04386834603266791</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.004478438257216415</v>
+        <v>-0.02369271023139995</v>
       </c>
       <c r="FU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FV7" t="n">
         <v>-0</v>
@@ -4386,19 +4386,19 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.00513039374837782</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>-0.04997440906862065</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.02574932376876111</v>
+        <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.03318056725150641</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -4407,13 +4407,13 @@
         <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>-0.02875697087993287</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -4442,13 +4442,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -4469,13 +4469,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -4496,13 +4496,13 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -4523,13 +4523,13 @@
         <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV8" t="n">
         <v>0</v>
@@ -4577,13 +4577,13 @@
         <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE8" t="n">
         <v>0</v>
@@ -4604,13 +4604,13 @@
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN8" t="n">
         <v>0</v>
@@ -4631,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -4658,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
         <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF8" t="n">
         <v>0</v>
@@ -4685,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="CL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM8" t="n">
         <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO8" t="n">
         <v>0</v>
@@ -4712,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG8" t="n">
         <v>0</v>
@@ -4766,13 +4766,13 @@
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP8" t="n">
         <v>0</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
         <v>0</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH8" t="n">
         <v>0</v>
@@ -4847,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="EN8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO8" t="n">
         <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -4874,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX8" t="n">
         <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ8" t="n">
         <v>0</v>
@@ -4901,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="FF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG8" t="n">
         <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI8" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="FO8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP8" t="n">
         <v>0</v>
@@ -4987,10 +4987,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.06287386924854531</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -4999,25 +4999,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01427510290852288</v>
+        <v>0.003388282420375911</v>
       </c>
       <c r="F9" t="n">
-        <v>-0</v>
+        <v>-0.02517169447813497</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.003110717265200715</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09757185660073103</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.01350005400446878</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -5026,25 +5026,25 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.005278204967084809</v>
+        <v>-0.007101497220708725</v>
       </c>
       <c r="O9" t="n">
-        <v>-0</v>
+        <v>0.008045653581179223</v>
       </c>
       <c r="P9" t="n">
-        <v>0.00400422076207285</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.04698117727496526</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>-0.003641477582174255</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5053,133 +5053,133 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003692691006300142</v>
+        <v>-0.01441654906497043</v>
       </c>
       <c r="X9" t="n">
-        <v>-0</v>
+        <v>0.0186645142122386</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.04156683743905154</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.006522923725349316</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
         <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0</v>
+        <v>0.02054684347659705</v>
       </c>
       <c r="AD9" t="n">
         <v>-0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.006696338075365087</v>
+        <v>0.02093321360011093</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.00800378570060262</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.03916736172166071</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-0.006471124912334987</v>
+        <v>-0</v>
       </c>
       <c r="AK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0</v>
+        <v>0.01181298432533204</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.003244333941777276</v>
+        <v>-0.004580196583431349</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.01000740621672644</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.005746754546731044</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.007006815527998085</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0</v>
+        <v>0.07275330287140705</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.06463554771403369</v>
+        <v>0.0106458826098197</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.009225994428203165</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.06095136685656457</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.08082250101959071</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>-0</v>
+        <v>0.01545283546046961</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0.03023614669086199</v>
+        <v>-0.009497899508059571</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.007380808481409385</v>
       </c>
       <c r="BI9" t="n">
-        <v>-0.01091857675760719</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
         <v>0</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.01437154950451926</v>
+        <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.04222833423123388</v>
       </c>
       <c r="BN9" t="n">
         <v>-0</v>
@@ -5188,52 +5188,52 @@
         <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.02685415341458557</v>
+        <v>0.02216982732973729</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.009531847401794993</v>
       </c>
       <c r="BR9" t="n">
-        <v>-0.01946934269422829</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT9" t="n">
-        <v>-0.01368836095983971</v>
+        <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.031965813701408</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.06322614629474388</v>
+        <v>-0.02066518773113308</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>0.0264117946552568</v>
       </c>
       <c r="CA9" t="n">
-        <v>-0.004198079042144282</v>
+        <v>0</v>
       </c>
       <c r="CB9" t="n">
         <v>-0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.04261830426551834</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.003042838811769848</v>
       </c>
       <c r="CF9" t="n">
         <v>-0</v>
@@ -5242,25 +5242,25 @@
         <v>0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.01415535430236599</v>
+        <v>-0.007173238021195202</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.0165270559748054</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-0.01337641188952264</v>
+        <v>0</v>
       </c>
       <c r="CK9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL9" t="n">
-        <v>-0.009541045911462931</v>
+        <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.00842926478811901</v>
       </c>
       <c r="CO9" t="n">
         <v>0</v>
@@ -5269,25 +5269,25 @@
         <v>0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.0481239061011195</v>
+        <v>0.0002110472901714322</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.03261703757739906</v>
       </c>
       <c r="CS9" t="n">
-        <v>-0.01863586419487596</v>
+        <v>0</v>
       </c>
       <c r="CT9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.05817008892592112</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.000525402186664162</v>
       </c>
       <c r="CX9" t="n">
         <v>0</v>
@@ -5296,160 +5296,160 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.008443847921359679</v>
+        <v>-0.006864481347581038</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.02014776868943686</v>
       </c>
       <c r="DB9" t="n">
-        <v>-0.005177976677448923</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0.02296752321314382</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
         <v>-0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.0006135911180563091</v>
       </c>
       <c r="DG9" t="n">
         <v>-0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0.04127285625666841</v>
+        <v>0.01385118256628192</v>
       </c>
       <c r="DJ9" t="n">
-        <v>-0</v>
+        <v>0.01365803661975566</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.02664794298156802</v>
+        <v>0</v>
       </c>
       <c r="DL9" t="n">
         <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0.008411405587024204</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>0.001778753000476371</v>
       </c>
       <c r="DP9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
         <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0.01083866669732211</v>
+        <v>0.01930023077166685</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>-0.001996430190024425</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.0003719505229311919</v>
+        <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.01914020857774193</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.02207399855529733</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
         <v>0</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.03395529525849157</v>
+        <v>-0.03276782318388665</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>-0.0163140717318499</v>
       </c>
       <c r="EC9" t="n">
-        <v>-0.02078551833487834</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>-0</v>
       </c>
       <c r="EE9" t="n">
-        <v>-0.02123766961081768</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>0.0008476200671628504</v>
       </c>
       <c r="EH9" t="n">
         <v>-0</v>
       </c>
       <c r="EI9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.008848706016651156</v>
+        <v>-0.008646855335252076</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.008031060488170564</v>
       </c>
       <c r="EL9" t="n">
-        <v>-0.00649859013685555</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN9" t="n">
-        <v>-0.02536062489648549</v>
+        <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.003526401984496116</v>
       </c>
       <c r="EQ9" t="n">
         <v>-0</v>
       </c>
       <c r="ER9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.001193636399552506</v>
+        <v>-0.02950268330384189</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0.05281506589107734</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0.0428621485745408</v>
+        <v>-0</v>
       </c>
       <c r="EV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>-0.01854789726939552</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.002850298818775542</v>
       </c>
       <c r="EZ9" t="n">
         <v>-0</v>
@@ -5458,52 +5458,52 @@
         <v>0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.006882399811565565</v>
+        <v>-0.007735361105492358</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>0.02109454357777212</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.006083094762090574</v>
+        <v>0</v>
       </c>
       <c r="FE9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>-0.01441082307254445</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
         <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.01945402945470251</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.006631607744987238</v>
+        <v>-0.03540456707611984</v>
       </c>
       <c r="FL9" t="n">
-        <v>-0</v>
+        <v>0.002608810106036269</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0.0203699202407796</v>
+        <v>-0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0.01846010766046757</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>-0.008202132862229067</v>
       </c>
       <c r="FR9" t="n">
         <v>0</v>
@@ -5512,46 +5512,46 @@
         <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.01077648958258406</v>
+        <v>-0.01157164192437822</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.03212899677262198</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0.01290636675624205</v>
+        <v>-0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.008553720041408957</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>-0.01933784432345962</v>
       </c>
       <c r="GA9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC9" t="n">
         <v>-0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.006921948097428144</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0.02891408935606365</v>
+        <v>0</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG9" t="n">
-        <v>-0.03353425656920501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5559,70 +5559,70 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.3912451448762867</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04090447485677833</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.1011672030005163</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01045363694890518</v>
+        <v>-0.1082379006125557</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H10" t="n">
         <v>-0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08433588503266871</v>
+        <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.197931697389699</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.006694327460134521</v>
+        <v>-0</v>
       </c>
       <c r="M10" t="n">
-        <v>-0</v>
+        <v>-0.0158261596378038</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.01550146880125334</v>
+        <v>-0.08876019630319774</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.05068426968978464</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>-0</v>
+        <v>0.1053243767359902</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.002150044050820345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0.001463766658902623</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005120788827124341</v>
+        <v>-0.02327324687093384</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
@@ -5631,52 +5631,52 @@
         <v>-0</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.002480755536205586</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>-0</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>0.07655574309004516</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.02813168247912854</v>
+        <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>-0.04254612536739336</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.01718940390960065</v>
+        <v>-0.0221538518540987</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
         <v>-0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.03145752885278674</v>
+        <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.05750508258592103</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.00543221979672382</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0</v>
+        <v>-0.03950131113795936</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.01573448667579324</v>
+        <v>-0.04784014343212306</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
@@ -5688,103 +5688,103 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.002456270605299177</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU10" t="n">
-        <v>0</v>
+        <v>0.4005662438421097</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.07758071015342899</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0</v>
+        <v>-0.04370740920143678</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.01588670828148275</v>
+        <v>0.1003590947483575</v>
       </c>
       <c r="AY10" t="n">
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0776398224482686</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0</v>
+        <v>0.03408814630711429</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0.01382007103179674</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0</v>
+        <v>-0.0301157629634122</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.0006795265311479521</v>
+        <v>-0.1267915166367245</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0.00958076341358338</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
         <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>-0</v>
+        <v>0.06576893200576656</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.02886530562176294</v>
+        <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0</v>
+        <v>0.1003231554437951</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0438400256440771</v>
+        <v>0.07130202187946635</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT10" t="n">
-        <v>-0.01721942962944111</v>
+        <v>-0</v>
       </c>
       <c r="BU10" t="n">
         <v>-0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.2401823708953868</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0.01000288732371794</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>-0.01929375264617028</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02415043820786105</v>
+        <v>-0.01550705689450956</v>
       </c>
       <c r="BZ10" t="n">
         <v>-0</v>
@@ -5793,25 +5793,25 @@
         <v>-0</v>
       </c>
       <c r="CB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.05282852493738739</v>
+        <v>0</v>
       </c>
       <c r="CD10" t="n">
         <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.09300835724419167</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0203062065033127</v>
+        <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>0</v>
+        <v>0.01659067262724155</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0002555096985035428</v>
+        <v>0.003055418233409963</v>
       </c>
       <c r="CI10" t="n">
         <v>-0</v>
@@ -5823,49 +5823,49 @@
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>-0.01853473174608746</v>
+        <v>0</v>
       </c>
       <c r="CM10" t="n">
         <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>0</v>
+        <v>-0.0220105512506123</v>
       </c>
       <c r="CO10" t="n">
-        <v>-0.002323740960331823</v>
+        <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>0</v>
+        <v>-0.07724932452524139</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.01796134383551599</v>
+        <v>-0.1397303998453228</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.04377013259681036</v>
+        <v>0</v>
       </c>
       <c r="CV10" t="n">
         <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.07187270742655243</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.01038862919553175</v>
+        <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.04861019311696525</v>
       </c>
       <c r="CZ10" t="n">
-        <v>-0.002949359196482234</v>
+        <v>-0.0006320276964437673</v>
       </c>
       <c r="DA10" t="n">
         <v>0</v>
@@ -5877,25 +5877,25 @@
         <v>-0</v>
       </c>
       <c r="DD10" t="n">
-        <v>-0.02110912424174282</v>
+        <v>-0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.05491022826681184</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.02597769765384835</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0.05018244203117268</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.002289251045077164</v>
+        <v>0.00228611306856489</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
         <v>-0</v>
@@ -5904,49 +5904,49 @@
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.03986928205709207</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.04359494237911939</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.002847461367757516</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.05794109432911693</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01030359821818002</v>
+        <v>-0.01401185398177996</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.02493896332456025</v>
+        <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0</v>
+        <v>0.04871867727992948</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.009479857426515201</v>
+        <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.0261043645848598</v>
       </c>
       <c r="EA10" t="n">
-        <v>-0.00734372029704301</v>
+        <v>-0.01762074827248063</v>
       </c>
       <c r="EB10" t="n">
         <v>0</v>
@@ -5955,25 +5955,25 @@
         <v>0</v>
       </c>
       <c r="ED10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.01357829083533623</v>
+        <v>0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.05370360104094832</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.007978905928360315</v>
+        <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>0</v>
+        <v>0.07309830401258988</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.02427480906681953</v>
+        <v>0.04599348884190376</v>
       </c>
       <c r="EK10" t="n">
         <v>-0</v>
@@ -5982,25 +5982,25 @@
         <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>-0.0210534633415656</v>
+        <v>0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.06874933216762531</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.005870118414042393</v>
+        <v>0</v>
       </c>
       <c r="ER10" t="n">
-        <v>-0</v>
+        <v>-0.07591976170779842</v>
       </c>
       <c r="ES10" t="n">
-        <v>-0.02315061888488985</v>
+        <v>-0.01983457144587087</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
@@ -6009,25 +6009,25 @@
         <v>-0</v>
       </c>
       <c r="EV10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW10" t="n">
-        <v>-0.03527805545038515</v>
+        <v>-0</v>
       </c>
       <c r="EX10" t="n">
         <v>-0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.08093986085851032</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.01456137632315486</v>
+        <v>0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0.03963546732105047</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.005960716266427305</v>
+        <v>-0.01265002279344074</v>
       </c>
       <c r="FC10" t="n">
         <v>-0</v>
@@ -6039,73 +6039,73 @@
         <v>0</v>
       </c>
       <c r="FF10" t="n">
-        <v>-0.02337362723838717</v>
+        <v>0</v>
       </c>
       <c r="FG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH10" t="n">
-        <v>-0</v>
+        <v>0.008021053107719209</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.01313861723496078</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.06264520767729929</v>
       </c>
       <c r="FK10" t="n">
-        <v>-0.00249031874620628</v>
+        <v>-0.0004404741571892447</v>
       </c>
       <c r="FL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
         <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0.02718880024127304</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
         <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>0.01755153109515328</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.007859343805255683</v>
+        <v>-0</v>
       </c>
       <c r="FS10" t="n">
-        <v>-0</v>
+        <v>0.01699770917311526</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.002426102871906918</v>
+        <v>0.04624378021877393</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.002270108553780613</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>0.007401901916137935</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.004158740405540316</v>
+        <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.02096123180077622</v>
       </c>
       <c r="GC10" t="n">
         <v>0</v>
@@ -6114,13 +6114,13 @@
         <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>-0.02361853877952791</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -6149,13 +6149,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6176,13 +6176,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -6203,13 +6203,13 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
@@ -6230,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM11" t="n">
         <v>0</v>
@@ -6257,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -6284,13 +6284,13 @@
         <v>0</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC11" t="n">
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -6311,13 +6311,13 @@
         <v>0</v>
       </c>
       <c r="BK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL11" t="n">
         <v>0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN11" t="n">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -6365,13 +6365,13 @@
         <v>0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
         <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF11" t="n">
         <v>0</v>
@@ -6392,13 +6392,13 @@
         <v>0</v>
       </c>
       <c r="CL11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM11" t="n">
         <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO11" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG11" t="n">
         <v>0</v>
@@ -6473,13 +6473,13 @@
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP11" t="n">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
         <v>0</v>
@@ -6533,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH11" t="n">
         <v>0</v>
@@ -6554,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
         <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ11" t="n">
         <v>0</v>
@@ -6581,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX11" t="n">
         <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ11" t="n">
         <v>0</v>
@@ -6608,13 +6608,13 @@
         <v>0</v>
       </c>
       <c r="FF11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG11" t="n">
         <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI11" t="n">
         <v>0</v>
@@ -6635,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="FO11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP11" t="n">
         <v>0</v>
@@ -6697,16 +6697,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.2643511692926258</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.02189832600178574</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-0</v>
+        <v>-0.02308713665173374</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01094195857924828</v>
+        <v>-0.0392525392044691</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -6718,103 +6718,103 @@
         <v>-0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06726221778613592</v>
+        <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.1143009599590333</v>
       </c>
       <c r="L12" t="n">
-        <v>0.00521293913616574</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-0</v>
+        <v>0.007178370314237517</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02273169640198566</v>
+        <v>-0.0368060157565807</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05379690198149722</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.04594182518774998</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0004342052435530598</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.01573251802415371</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.01198766386523846</v>
+        <v>0.04034400992964427</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y12" t="n">
         <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.03320720240445093</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.05693446474201948</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.03137118062008266</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>-0.003374301844092382</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.01431312774112502</v>
+        <v>0.004724861883091951</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
         <v>-0</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.03817397958888626</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>-0.00766640197458973</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.004126670937861327</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.01462809269149798</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.02131541788175184</v>
+        <v>-0.03033553131626359</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -6826,25 +6826,25 @@
         <v>-0</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.001315879716305371</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.2515711798093011</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.03178943453543005</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>0.0295871477103158</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01897279130549201</v>
+        <v>0.06155570565936054</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ12" t="n">
         <v>-0</v>
@@ -6853,25 +6853,25 @@
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.05859769060876452</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>-0</v>
+        <v>0.04284478640943332</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.02022862891948973</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0</v>
+        <v>-0.05277933942308401</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.004367354921606242</v>
+        <v>-0.05341572924519509</v>
       </c>
       <c r="BH12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
         <v>0</v>
@@ -6880,49 +6880,49 @@
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>-0.02467155340102942</v>
+        <v>0</v>
       </c>
       <c r="BL12" t="n">
         <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>-0</v>
+        <v>0.09533664524924726</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.04523558975291169</v>
+        <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.02122174750834003</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.03519449575704869</v>
+        <v>0.1007892759593687</v>
       </c>
       <c r="BQ12" t="n">
         <v>-0</v>
       </c>
       <c r="BR12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
-        <v>-0.02847366439586613</v>
+        <v>-0</v>
       </c>
       <c r="BU12" t="n">
         <v>-0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.1341012784571701</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.00349820975519006</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.02849679649506639</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.02817369659641919</v>
+        <v>0.02835965048607108</v>
       </c>
       <c r="BZ12" t="n">
         <v>-0</v>
@@ -6934,49 +6934,49 @@
         <v>-0</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.05940795491932388</v>
+        <v>-0</v>
       </c>
       <c r="CD12" t="n">
         <v>-0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.05732838328871</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01925487011317893</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>0</v>
+        <v>-0.00317526374824571</v>
       </c>
       <c r="CH12" t="n">
-        <v>-0.002428695397170394</v>
+        <v>-0.0004848123364087244</v>
       </c>
       <c r="CI12" t="n">
         <v>-0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0.01067015458284521</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
         <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>0</v>
+        <v>-0.04831563292492583</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.005852908615909277</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>0</v>
+        <v>-0.03876072084229363</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.04121869460408861</v>
+        <v>-0.05567718969656621</v>
       </c>
       <c r="CR12" t="n">
         <v>0</v>
@@ -6985,25 +6985,25 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.04717316057961442</v>
+        <v>-0</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.03965340185571896</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0199744254141804</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>-0</v>
+        <v>0.006407964691133617</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01347722566591286</v>
+        <v>-0.0003942097042739054</v>
       </c>
       <c r="DA12" t="n">
         <v>0</v>
@@ -7015,25 +7015,25 @@
         <v>0</v>
       </c>
       <c r="DD12" t="n">
-        <v>-0.0134657171557111</v>
+        <v>0</v>
       </c>
       <c r="DE12" t="n">
         <v>-0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.01099547913730385</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.04264206651295453</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>-0</v>
+        <v>0.05643095032247319</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.001962840273121397</v>
+        <v>0.002532761652660988</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK12" t="n">
         <v>-0</v>
@@ -7042,25 +7042,25 @@
         <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.006682967605648312</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.0714471443120074</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.03636989506412561</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0</v>
+        <v>-0.01011235256550193</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.007573943309639508</v>
+        <v>-0.01243818377041347</v>
       </c>
       <c r="DS12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT12" t="n">
         <v>0</v>
@@ -7069,22 +7069,22 @@
         <v>-0</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.02761178306670901</v>
+        <v>-0</v>
       </c>
       <c r="DW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.009202145188457732</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.003509573897788323</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.00442790801903348</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.0107090771339521</v>
+        <v>-0.0199183880285905</v>
       </c>
       <c r="EB12" t="n">
         <v>0</v>
@@ -7096,49 +7096,49 @@
         <v>0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.02061499817377227</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
         <v>-0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.0369114678985014</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.0102467756465529</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>0</v>
+        <v>0.003383921986545245</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.02716462910446769</v>
+        <v>0.03733273643959186</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL12" t="n">
         <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
-        <v>-0.008838172218874814</v>
+        <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.02684366170854396</v>
       </c>
       <c r="EQ12" t="n">
-        <v>-0.03351751764954647</v>
+        <v>0</v>
       </c>
       <c r="ER12" t="n">
-        <v>-0</v>
+        <v>0.002912746244063471</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.0138387758106242</v>
+        <v>0.02442160522616116</v>
       </c>
       <c r="ET12" t="n">
         <v>-0</v>
@@ -7147,79 +7147,79 @@
         <v>-0</v>
       </c>
       <c r="EV12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>-0.02742793583564231</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
         <v>-0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.0390360311400527</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01933572360597681</v>
+        <v>0</v>
       </c>
       <c r="FA12" t="n">
-        <v>0</v>
+        <v>-0.0003141463441104694</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.00148310717867444</v>
+        <v>0.01270147623476716</v>
       </c>
       <c r="FC12" t="n">
         <v>-0</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF12" t="n">
-        <v>-0.02057056555931992</v>
+        <v>-0</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>-0</v>
+        <v>0.006364611715556518</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.02781509451843025</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.002559436822125993</v>
       </c>
       <c r="FK12" t="n">
-        <v>-0.03240373656261712</v>
+        <v>-0.02742220703942632</v>
       </c>
       <c r="FL12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0.04597368772375202</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>-0</v>
+        <v>-0.03162979509427057</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.008841730282702536</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>0</v>
+        <v>-0.01868853439061754</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.02359398654042891</v>
+        <v>0.01350178995093311</v>
       </c>
       <c r="FU12" t="n">
         <v>-0</v>
@@ -7228,22 +7228,22 @@
         <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0.006269014774840838</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>-0.008741097667326156</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.01027443433122361</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.0258210142730253</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
@@ -7255,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>-0.02062472486778285</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
@@ -7266,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.1626545704473887</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.09839808332643223</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05006415134053794</v>
+        <v>0.008118510526478389</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.1107748582824999</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -7287,79 +7287,79 @@
         <v>-0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2181997767018617</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.09366709358408427</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.02616187246956956</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.03321554839217041</v>
+        <v>-0.00361512219365746</v>
       </c>
       <c r="O13" t="n">
-        <v>-0</v>
+        <v>-0.06483019903451777</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q13" t="n">
         <v>-0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1810473517338416</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T13" t="n">
-        <v>-0</v>
+        <v>0.005425073693194574</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.01997081610792283</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1411538126068294</v>
+        <v>-0.01503069395751044</v>
       </c>
       <c r="X13" t="n">
-        <v>-0</v>
+        <v>-0.004730254718238467</v>
       </c>
       <c r="Y13" t="n">
         <v>-0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.04733395595408975</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0</v>
+        <v>0.02427754838870518</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.01358619300808315</v>
+        <v>-0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.06813889959833594</v>
+        <v>0.01838461690358473</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0</v>
+        <v>-0.008851429918215879</v>
       </c>
       <c r="AH13" t="n">
         <v>-0</v>
@@ -7368,52 +7368,52 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.1098680621527645</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>-0</v>
+        <v>0.001827863605433876</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.008893331904748433</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.02528671144082946</v>
+        <v>-0.01562828486276784</v>
       </c>
       <c r="AP13" t="n">
-        <v>0</v>
+        <v>-0.02679303975955091</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.02101718366527159</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0</v>
+        <v>0.1108267858550833</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0.07828641648959027</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.02290974681905896</v>
+        <v>0.001630028920386998</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0.04930554244688339</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
@@ -7422,52 +7422,52 @@
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1094957593212664</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>-0</v>
+        <v>0.05640465801115079</v>
       </c>
       <c r="BE13" t="n">
         <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.03042076193854088</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.04980256295909181</v>
+        <v>-0.02297467190825307</v>
       </c>
       <c r="BH13" t="n">
-        <v>-0</v>
+        <v>-0.04810356583808924</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.02445020174765459</v>
+        <v>-0</v>
       </c>
       <c r="BL13" t="n">
         <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>-0</v>
+        <v>0.06029248881829624</v>
       </c>
       <c r="BN13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>-0.02177313674510743</v>
+        <v>-0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01575875450606922</v>
+        <v>0.03449617060407927</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0</v>
+        <v>0.008916257706439019</v>
       </c>
       <c r="BR13" t="n">
         <v>-0</v>
@@ -7476,295 +7476,295 @@
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>-0.06995722378405733</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
         <v>-0</v>
       </c>
       <c r="BV13" t="n">
-        <v>-0</v>
+        <v>0.05784569101354891</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>-0.07345992629328067</v>
+        <v>0</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.004467855014645437</v>
+        <v>-0.007481436007536997</v>
       </c>
       <c r="BZ13" t="n">
-        <v>-0</v>
+        <v>-0.008936020578077042</v>
       </c>
       <c r="CA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.1519537809778624</v>
+        <v>0</v>
       </c>
       <c r="CD13" t="n">
         <v>-0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.03205861075085583</v>
       </c>
       <c r="CF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.02544693029564382</v>
+        <v>-0</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.008184730184052554</v>
+        <v>-0.00498260892433734</v>
       </c>
       <c r="CI13" t="n">
-        <v>0</v>
+        <v>0.02699834836239675</v>
       </c>
       <c r="CJ13" t="n">
         <v>-0</v>
       </c>
       <c r="CK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL13" t="n">
-        <v>-0.0333034896120022</v>
+        <v>0</v>
       </c>
       <c r="CM13" t="n">
         <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>0</v>
+        <v>-0.02115289009577649</v>
       </c>
       <c r="CO13" t="n">
         <v>0</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.003620004045099826</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.0307851134867172</v>
+        <v>0.02321698969749186</v>
       </c>
       <c r="CR13" t="n">
-        <v>0</v>
+        <v>-0.02029297259330767</v>
       </c>
       <c r="CS13" t="n">
         <v>-0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.05248068270124918</v>
+        <v>0</v>
       </c>
       <c r="CV13" t="n">
         <v>0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.01963874620264003</v>
       </c>
       <c r="CX13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0333686301353975</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>-0.009375624456455352</v>
+        <v>-0.005780568118524821</v>
       </c>
       <c r="DA13" t="n">
-        <v>-0</v>
+        <v>0.02597517594928424</v>
       </c>
       <c r="DB13" t="n">
         <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD13" t="n">
-        <v>-0.04542789357118537</v>
+        <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.009088601049999675</v>
       </c>
       <c r="DG13" t="n">
         <v>-0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.02998004900401801</v>
+        <v>-0</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.002374672787848493</v>
+        <v>0.001238169601273778</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-0</v>
+        <v>0.003670885618753767</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL13" t="n">
         <v>-0</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.006341326787512482</v>
+        <v>-0</v>
       </c>
       <c r="DN13" t="n">
         <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.0261409704351603</v>
       </c>
       <c r="DP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0105949446274567</v>
+        <v>0</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.03237664245853318</v>
+        <v>0.01329336355330672</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>-0.009351921820889519</v>
       </c>
       <c r="DT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU13" t="n">
         <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.04986784550864916</v>
+        <v>-0</v>
       </c>
       <c r="DW13" t="n">
         <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.00321598611489276</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0.03006507994273246</v>
+        <v>-0</v>
       </c>
       <c r="EA13" t="n">
-        <v>-0.02396400881411819</v>
+        <v>-0.01287261386936573</v>
       </c>
       <c r="EB13" t="n">
-        <v>0</v>
+        <v>-0.007344735501465534</v>
       </c>
       <c r="EC13" t="n">
         <v>-0</v>
       </c>
       <c r="ED13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.03717188970877031</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
         <v>-0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.01427019427805135</v>
       </c>
       <c r="EH13" t="n">
         <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.01538673295335714</v>
+        <v>0</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.05804003041655101</v>
+        <v>0.005695887086506388</v>
       </c>
       <c r="EK13" t="n">
-        <v>-0</v>
+        <v>0.01743024510170094</v>
       </c>
       <c r="EL13" t="n">
         <v>-0</v>
       </c>
       <c r="EM13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN13" t="n">
-        <v>-0.04167143392692308</v>
+        <v>0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.01829391028211523</v>
       </c>
       <c r="EQ13" t="n">
         <v>-0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.04016294525145916</v>
+        <v>-0</v>
       </c>
       <c r="ES13" t="n">
-        <v>-0.0180404770735313</v>
+        <v>-0.003101928714285872</v>
       </c>
       <c r="ET13" t="n">
-        <v>0</v>
+        <v>0.04120101345729477</v>
       </c>
       <c r="EU13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW13" t="n">
-        <v>-0.04539163654224415</v>
+        <v>-0</v>
       </c>
       <c r="EX13" t="n">
         <v>-0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.02265293985028173</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.01997686880912494</v>
+        <v>0</v>
       </c>
       <c r="FB13" t="n">
-        <v>-0.0001602698899442772</v>
+        <v>0.001439180437472502</v>
       </c>
       <c r="FC13" t="n">
-        <v>0</v>
+        <v>0.02957875736900847</v>
       </c>
       <c r="FD13" t="n">
         <v>-0</v>
       </c>
       <c r="FE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF13" t="n">
-        <v>-0.05424300479821146</v>
+        <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.001294156783802683</v>
       </c>
       <c r="FI13" t="n">
         <v>0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0.01115473838391118</v>
+        <v>-0</v>
       </c>
       <c r="FK13" t="n">
-        <v>-0.02721358065840312</v>
+        <v>-0.02043137662732659</v>
       </c>
       <c r="FL13" t="n">
-        <v>-0</v>
+        <v>0.013329018644396</v>
       </c>
       <c r="FM13" t="n">
         <v>-0</v>
@@ -7773,25 +7773,25 @@
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0.04602349061156796</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
         <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>-0</v>
+        <v>-0.01558090527185463</v>
       </c>
       <c r="FR13" t="n">
         <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.002268749735984045</v>
+        <v>0</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.004150344412077218</v>
+        <v>-0.020369630884837</v>
       </c>
       <c r="FU13" t="n">
-        <v>-0</v>
+        <v>0.001059694372488531</v>
       </c>
       <c r="FV13" t="n">
         <v>-0</v>
@@ -7800,34 +7800,34 @@
         <v>-0</v>
       </c>
       <c r="FX13" t="n">
-        <v>-0.02346002745753605</v>
+        <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>-0.02537647444162048</v>
       </c>
       <c r="GA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.05754805851057301</v>
+        <v>-0</v>
       </c>
       <c r="GC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD13" t="n">
-        <v>-0</v>
+        <v>-0.01654546053528145</v>
       </c>
       <c r="GE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF13" t="n">
         <v>-0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0129915829038692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -7835,79 +7835,79 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.3297277265029893</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-0.09383387319753544</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1869473298726431</v>
+        <v>-0.06744234660729112</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2082431065204415</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3046012338429491</v>
+        <v>-0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-0</v>
+        <v>0.234903374208786</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-0.1084472475488092</v>
       </c>
       <c r="N14" t="n">
-        <v>0.2426281217223593</v>
+        <v>-0.1193051533808462</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1841301712526363</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3516640851378028</v>
+        <v>-0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.1043920882930735</v>
       </c>
       <c r="V14" t="n">
-        <v>-0</v>
+        <v>-0.0549373486949406</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1196802739642103</v>
+        <v>0.04171284181743129</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.0425035263040823</v>
+        <v>-0</v>
       </c>
       <c r="Y14" t="n">
         <v>-0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.2070256776163654</v>
+        <v>-0</v>
       </c>
       <c r="AA14" t="n">
         <v>-0</v>
@@ -7916,25 +7916,25 @@
         <v>-0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>0.06608681813861761</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>0.04784607526862489</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.149438406271346</v>
+        <v>0.02934476486506558</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.03798223475511426</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.05267653329910497</v>
+        <v>-0</v>
       </c>
       <c r="AJ14" t="n">
         <v>0</v>
@@ -7946,76 +7946,76 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>-0</v>
+        <v>-0.01603323821727262</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0</v>
+        <v>-0.01942706753273809</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.1392390621809647</v>
+        <v>-0.06727495562513931</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.01270228780575578</v>
+        <v>0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.03383477271465156</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
         <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0</v>
+        <v>0.1556225721863567</v>
       </c>
       <c r="AW14" t="n">
-        <v>0</v>
+        <v>-0.008153600776990139</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.06121872333442539</v>
+        <v>0.1543496962833429</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0.06325290347848952</v>
+        <v>-0</v>
       </c>
       <c r="AZ14" t="n">
         <v>-0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.1193015250322167</v>
+        <v>-0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
         <v>0</v>
       </c>
       <c r="BE14" t="n">
-        <v>0</v>
+        <v>0.08260225042550028</v>
       </c>
       <c r="BF14" t="n">
-        <v>0</v>
+        <v>-0.03393518670994818</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.1553282067733579</v>
+        <v>-0.08852142904353751</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.008217095966347539</v>
+        <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.1033364501543163</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -8027,22 +8027,22 @@
         <v>-0</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0</v>
+        <v>0.03408463627701223</v>
       </c>
       <c r="BO14" t="n">
-        <v>-0</v>
+        <v>0.07286328706969751</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.0007438278807025667</v>
+        <v>0.1285814451283135</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.0242261060605589</v>
+        <v>-0</v>
       </c>
       <c r="BR14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS14" t="n">
-        <v>-0.04038194844092376</v>
+        <v>-0</v>
       </c>
       <c r="BT14" t="n">
         <v>-0</v>
@@ -8054,49 +8054,49 @@
         <v>-0</v>
       </c>
       <c r="BW14" t="n">
-        <v>0</v>
+        <v>0.07400617580398901</v>
       </c>
       <c r="BX14" t="n">
-        <v>-0</v>
+        <v>-0.0610227717598229</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.1042103902952915</v>
+        <v>0.1096379685744012</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-0.1926769443945892</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.1360015818514891</v>
+        <v>-0</v>
       </c>
       <c r="CC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0</v>
+        <v>-0.07657984641186134</v>
       </c>
       <c r="CG14" t="n">
-        <v>-0</v>
+        <v>0.02677063756037222</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.06090271559142017</v>
+        <v>0.0005705494525345085</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.06051577746105222</v>
+        <v>0</v>
       </c>
       <c r="CJ14" t="n">
         <v>-0</v>
       </c>
       <c r="CK14" t="n">
-        <v>-0.07320268734407753</v>
+        <v>0</v>
       </c>
       <c r="CL14" t="n">
         <v>-0</v>
@@ -8105,109 +8105,109 @@
         <v>0</v>
       </c>
       <c r="CN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO14" t="n">
-        <v>-0</v>
+        <v>0.01415828497846161</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0.01176199976224738</v>
       </c>
       <c r="CQ14" t="n">
-        <v>-0.05092780932672708</v>
+        <v>-0.1247301281016238</v>
       </c>
       <c r="CR14" t="n">
-        <v>-0.05387400580135109</v>
+        <v>-0</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>-0.04073219722262376</v>
+        <v>-0</v>
       </c>
       <c r="CU14" t="n">
         <v>-0</v>
       </c>
       <c r="CV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>-0.05879513880254768</v>
       </c>
       <c r="CY14" t="n">
-        <v>0</v>
+        <v>0.02700418411768378</v>
       </c>
       <c r="CZ14" t="n">
-        <v>-0.05276029128764945</v>
+        <v>0.02822064266700462</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.06003096622303711</v>
+        <v>-0</v>
       </c>
       <c r="DB14" t="n">
         <v>0</v>
       </c>
       <c r="DC14" t="n">
-        <v>-0.09798217421399145</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
         <v>-0</v>
       </c>
       <c r="DG14" t="n">
-        <v>0</v>
+        <v>-0.03729249221425879</v>
       </c>
       <c r="DH14" t="n">
-        <v>0</v>
+        <v>0.05832568388093099</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.03084798386611852</v>
+        <v>-0.01120842255189279</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.06143931584751295</v>
+        <v>0</v>
       </c>
       <c r="DK14" t="n">
         <v>-0</v>
       </c>
       <c r="DL14" t="n">
-        <v>-0.005992074939506947</v>
+        <v>0</v>
       </c>
       <c r="DM14" t="n">
         <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO14" t="n">
         <v>-0</v>
       </c>
       <c r="DP14" t="n">
-        <v>-0</v>
+        <v>-0.004280627062291602</v>
       </c>
       <c r="DQ14" t="n">
-        <v>-0</v>
+        <v>0.0256002884223103</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.04521263259086043</v>
+        <v>-0.1580517099062551</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.01750966807423666</v>
+        <v>0</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
       </c>
       <c r="DU14" t="n">
-        <v>-0.05949437052513112</v>
+        <v>-0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
         <v>-0</v>
@@ -8216,184 +8216,184 @@
         <v>0</v>
       </c>
       <c r="DY14" t="n">
-        <v>-0</v>
+        <v>0.07019589668284824</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-0</v>
+        <v>-0.01304089953978976</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.01261012925567573</v>
+        <v>-0.06564346416973522</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.008154549829549244</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0164187148709907</v>
+        <v>0</v>
       </c>
       <c r="EE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
         <v>0</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0</v>
+        <v>-0.1146450588217895</v>
       </c>
       <c r="EI14" t="n">
-        <v>-0</v>
+        <v>0.05676103391879767</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.05491848233410249</v>
+        <v>0.06608999887652373</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.08991420549634423</v>
+        <v>-0</v>
       </c>
       <c r="EL14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM14" t="n">
-        <v>-0.02486252436783319</v>
+        <v>-0</v>
       </c>
       <c r="EN14" t="n">
         <v>-0</v>
       </c>
       <c r="EO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0</v>
+        <v>-0.007444624882362774</v>
       </c>
       <c r="ER14" t="n">
-        <v>-0</v>
+        <v>0.02714963804322017</v>
       </c>
       <c r="ES14" t="n">
-        <v>-0.08212990685245548</v>
+        <v>0.04048573178335757</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.05539907464227171</v>
+        <v>0</v>
       </c>
       <c r="EU14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV14" t="n">
-        <v>-0.08363040219852055</v>
+        <v>-0</v>
       </c>
       <c r="EW14" t="n">
         <v>-0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
         <v>0</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0</v>
+        <v>-0.07364275460326572</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0</v>
+        <v>0.04570937329146326</v>
       </c>
       <c r="FB14" t="n">
-        <v>-0.07413352547790723</v>
+        <v>0.02633035017813696</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.060993213419497</v>
+        <v>0</v>
       </c>
       <c r="FD14" t="n">
         <v>-0</v>
       </c>
       <c r="FE14" t="n">
-        <v>-0.1051426245390112</v>
+        <v>-0</v>
       </c>
       <c r="FF14" t="n">
         <v>-0</v>
       </c>
       <c r="FG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
         <v>-0</v>
       </c>
       <c r="FI14" t="n">
-        <v>0</v>
+        <v>-0.008246253344766526</v>
       </c>
       <c r="FJ14" t="n">
-        <v>-0</v>
+        <v>-0.002568981713275415</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.01486632019113159</v>
+        <v>0.07814452139637383</v>
       </c>
       <c r="FL14" t="n">
-        <v>-0.008093107786617112</v>
+        <v>-0</v>
       </c>
       <c r="FM14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0.04766219562358708</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP14" t="n">
         <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR14" t="n">
-        <v>0</v>
+        <v>-0.005906485415385338</v>
       </c>
       <c r="FS14" t="n">
-        <v>-0</v>
+        <v>-0.009244608878414894</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.05207901702451374</v>
+        <v>0.06030949512900733</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0.01356004870374285</v>
+        <v>0</v>
       </c>
       <c r="FV14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0.01295161309394384</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY14" t="n">
         <v>-0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA14" t="n">
-        <v>-0</v>
+        <v>0.04687720126775492</v>
       </c>
       <c r="GB14" t="n">
-        <v>0</v>
+        <v>-0.05435994909365509</v>
       </c>
       <c r="GC14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.001079387818798288</v>
+        <v>-0</v>
       </c>
       <c r="GE14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.01464490063344476</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
         <v>-0</v>
@@ -8401,244 +8401,244 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.1522327995762455</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1524246064859511</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1988248753906875</v>
+        <v>-0.06410209849017293</v>
       </c>
       <c r="F15" t="n">
-        <v>-0</v>
+        <v>-0.05811465235377286</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5427849753348991</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.09135315732630904</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0682430478434518</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2025543515496871</v>
+        <v>-0.03841625416539146</v>
       </c>
       <c r="O15" t="n">
-        <v>-0</v>
+        <v>-0.02909231290091257</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.556609114529507</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-0</v>
+        <v>0.01410408360108832</v>
       </c>
       <c r="U15" t="n">
         <v>-0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.07871792458236791</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1530611576930849</v>
+        <v>-0.02851482821847082</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.02368009232892108</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.2295181101243849</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB15" t="n">
         <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.03239956877036738</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.0633923566289764</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.01013309346990772</v>
+        <v>0.02913614330409627</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>-0.0027393718907882</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.03868505212165562</v>
+        <v>-0</v>
       </c>
       <c r="AJ15" t="n">
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.02381186002911483</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.01260998140615803</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>-0.1392369186936638</v>
+        <v>-0.01571153451636535</v>
       </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>-0.02421688653440148</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.05974686550601706</v>
+        <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.0918020545263579</v>
       </c>
       <c r="AV15" t="n">
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.04137430887731876</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.1508612298871762</v>
+        <v>-0.04485779875378839</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
+        <v>-0.03779639925139037</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.3355709542873218</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.03781995938734373</v>
       </c>
       <c r="BE15" t="n">
         <v>0</v>
       </c>
       <c r="BF15" t="n">
-        <v>-0.05745161703686434</v>
+        <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.02187423943928784</v>
+        <v>-0.02571545703665076</v>
       </c>
       <c r="BH15" t="n">
-        <v>-0</v>
+        <v>-0.008578188800837671</v>
       </c>
       <c r="BI15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.07958924931914362</v>
+        <v>0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL15" t="n">
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>-0</v>
+        <v>0.05067938028284873</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>-0.03340475290003144</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.04393895640291023</v>
+        <v>0.03205887893936409</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>0.01646347280862339</v>
       </c>
       <c r="BR15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0.1447476973145718</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU15" t="n">
         <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>-0</v>
+        <v>0.06057276845149372</v>
       </c>
       <c r="BW15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
-        <v>-0.02030809735674889</v>
+        <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.1229741292006464</v>
+        <v>-0.03108925046621498</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-0</v>
+        <v>0.006683695590611779</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.2960347189223151</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
         <v>-0</v>
@@ -8647,25 +8647,25 @@
         <v>-0</v>
       </c>
       <c r="CE15" t="n">
-        <v>0</v>
+        <v>-0.0251577045322758</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.03903772936304166</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.08273935965029222</v>
+        <v>0.009433831791659337</v>
       </c>
       <c r="CI15" t="n">
-        <v>0</v>
+        <v>0.01709199004031064</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
       </c>
       <c r="CK15" t="n">
-        <v>-0.1242564752650315</v>
+        <v>0</v>
       </c>
       <c r="CL15" t="n">
         <v>0</v>
@@ -8674,106 +8674,106 @@
         <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>0</v>
+        <v>-0.0004323628448144409</v>
       </c>
       <c r="CO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0.07164284370424841</v>
+        <v>-0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>-0.2071402895630291</v>
+        <v>-0.007317233996337737</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.02666452956534559</v>
       </c>
       <c r="CS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>-0.06368280820283215</v>
+        <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.01875988599994741</v>
       </c>
       <c r="CX15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.04521708604456999</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>-0.102490660035236</v>
+        <v>0.006597294729820343</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>0.02453964930310891</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
       </c>
       <c r="DC15" t="n">
-        <v>-0.1460147068285745</v>
+        <v>-0</v>
       </c>
       <c r="DD15" t="n">
         <v>0</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.009853732350261246</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.03669634020960545</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.03473520409471213</v>
+        <v>0.00946420111842609</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>-0.002633310940921831</v>
       </c>
       <c r="DK15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL15" t="n">
-        <v>-0.0209551005426469</v>
+        <v>-0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
         <v>-0</v>
       </c>
       <c r="DO15" t="n">
-        <v>0</v>
+        <v>-0.0262298126065202</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-0.08116143494266452</v>
+        <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.01829774233587441</v>
+        <v>0.03173729786951046</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0.02010168060146452</v>
       </c>
       <c r="DT15" t="n">
         <v>-0</v>
       </c>
       <c r="DU15" t="n">
-        <v>-0.01492816994739316</v>
+        <v>-0</v>
       </c>
       <c r="DV15" t="n">
         <v>-0</v>
@@ -8782,25 +8782,25 @@
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0.007534911770838239</v>
       </c>
       <c r="DY15" t="n">
         <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0.01741151431670335</v>
+        <v>-0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.0728837991755097</v>
+        <v>-0.02363152746399757</v>
       </c>
       <c r="EB15" t="n">
-        <v>0</v>
+        <v>-0.008139738632494455</v>
       </c>
       <c r="EC15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.06159900532960001</v>
+        <v>0</v>
       </c>
       <c r="EE15" t="n">
         <v>0</v>
@@ -8809,160 +8809,160 @@
         <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>0</v>
+        <v>-0.01267838892423779</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.1161036060409363</v>
+        <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.0522928275404369</v>
+        <v>0.01698193845423737</v>
       </c>
       <c r="EK15" t="n">
-        <v>0</v>
+        <v>0.008474357408964892</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0.2043528052137585</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
         <v>-0</v>
       </c>
       <c r="EO15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>-0</v>
+        <v>0.0004720076985212776</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>-0.1093022042472873</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>-0.1691817587845066</v>
+        <v>-0.01424370993583341</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.02653641709056721</v>
       </c>
       <c r="EU15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0828095339211526</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
         <v>-0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.01452798602076892</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.04515117682964004</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.08558484593626817</v>
+        <v>0.003646912804567929</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.02512998618364461</v>
       </c>
       <c r="FD15" t="n">
         <v>-0</v>
       </c>
       <c r="FE15" t="n">
-        <v>-0.1552906942609364</v>
+        <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG15" t="n">
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.02096593364923856</v>
       </c>
       <c r="FI15" t="n">
         <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.05011272137012086</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>-0.1062435042998135</v>
+        <v>-0.04017981810145912</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0.0129160877065842</v>
       </c>
       <c r="FM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN15" t="n">
-        <v>-0.08622208084915105</v>
+        <v>-0</v>
       </c>
       <c r="FO15" t="n">
         <v>0</v>
       </c>
       <c r="FP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0</v>
+        <v>0.00170580037396986</v>
       </c>
       <c r="FR15" t="n">
         <v>-0</v>
       </c>
       <c r="FS15" t="n">
-        <v>-0.0737785019009812</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.001028515856364882</v>
+        <v>0.0006547195324185436</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>0.01596790915429479</v>
       </c>
       <c r="FV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW15" t="n">
-        <v>-0.0282480435616698</v>
+        <v>-0</v>
       </c>
       <c r="FX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.02540787431116027</v>
       </c>
       <c r="GA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
-        <v>-0.05634916196086594</v>
+        <v>-0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>-0</v>
+        <v>-0.0159924701666823</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF15" t="n">
-        <v>-0.04529022574166921</v>
+        <v>0</v>
       </c>
       <c r="GG15" t="n">
         <v>0</v>
@@ -8970,7 +8970,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -8994,10 +8994,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -9048,10 +9048,10 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9075,10 +9075,10 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL16" t="n">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -9129,10 +9129,10 @@
         <v>0</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD16" t="n">
         <v>0</v>
@@ -9156,10 +9156,10 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
         <v>0</v>
@@ -9183,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="BT16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV16" t="n">
         <v>0</v>
@@ -9210,10 +9210,10 @@
         <v>0</v>
       </c>
       <c r="CC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE16" t="n">
         <v>0</v>
@@ -9237,10 +9237,10 @@
         <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN16" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
         <v>0</v>
@@ -9345,7 +9345,7 @@
         <v>0</v>
       </c>
       <c r="DV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW16" t="n">
         <v>0</v>
@@ -9375,7 +9375,7 @@
         <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG16" t="n">
         <v>0</v>
@@ -9399,10 +9399,10 @@
         <v>0</v>
       </c>
       <c r="EN16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP16" t="n">
         <v>0</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="EW16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY16" t="n">
         <v>0</v>
@@ -9453,10 +9453,10 @@
         <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH16" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ16" t="n">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
         <v>0</v>
@@ -9539,25 +9539,25 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0</v>
+        <v>-0.5117419154488501</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3168617380505027</v>
+        <v>-0</v>
       </c>
       <c r="C17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1331374370068309</v>
+        <v>-0.2720153193052236</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1397034026722077</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.01521534558383</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -9566,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-0</v>
+        <v>-0.4330436004063703</v>
       </c>
       <c r="K17" t="n">
-        <v>0.314073610411249</v>
+        <v>-0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9578,94 +9578,94 @@
         <v>-0</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.09451909240011939</v>
+        <v>-0.314132731387353</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1602892674275231</v>
+        <v>-0</v>
       </c>
       <c r="P17" t="n">
-        <v>-0</v>
+        <v>0.9066551107665303</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-0.06750330595100434</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.04886038394782789</v>
+        <v>-0</v>
       </c>
       <c r="U17" t="n">
         <v>-0</v>
       </c>
       <c r="V17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.019805527592564</v>
+        <v>-0.1253976515762366</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.04472143721885456</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>0.1646618896340352</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>-0.1950518705034183</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.07548231901550555</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.03377133483718025</v>
+        <v>-0.1195079211280224</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.04405967938554263</v>
+        <v>-0</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>0.2467948162084358</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0</v>
+        <v>-0.08506913135906985</v>
       </c>
       <c r="AL17" t="n">
-        <v>0.07250101430343292</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.01748732117113813</v>
+        <v>-0.1425312316620063</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0.03357901392296883</v>
+        <v>0</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>0.1176863998061063</v>
       </c>
       <c r="AR17" t="n">
         <v>-0</v>
@@ -9674,91 +9674,91 @@
         <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0</v>
+        <v>-0.2977123093785276</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.1567595351661867</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.01887549798884626</v>
+        <v>-0.1373667265708479</v>
       </c>
       <c r="AY17" t="n">
-        <v>-0.06190329677787781</v>
+        <v>-0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0</v>
+        <v>0.3446597615834525</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB17" t="n">
         <v>-0</v>
       </c>
       <c r="BC17" t="n">
-        <v>0</v>
+        <v>-0.114049745191676</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.08687334878766337</v>
+        <v>-0</v>
       </c>
       <c r="BE17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF17" t="n">
         <v>-0</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0002465751390250639</v>
+        <v>-0.001377869211232757</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.01812711086123531</v>
+        <v>-0</v>
       </c>
       <c r="BI17" t="n">
-        <v>-0</v>
+        <v>0.2697409909105724</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BL17" t="n">
-        <v>0</v>
+        <v>0.1526272198248634</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.0004374323526206549</v>
+        <v>-0</v>
       </c>
       <c r="BN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO17" t="n">
         <v>0</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.08855296650472856</v>
+        <v>0.04084803971967239</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.07415242734413717</v>
+        <v>-0</v>
       </c>
       <c r="BR17" t="n">
-        <v>-0</v>
+        <v>-0.217430747719712</v>
       </c>
       <c r="BS17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
         <v>-0</v>
       </c>
       <c r="BU17" t="n">
-        <v>-0</v>
+        <v>-0.2098093117100811</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.05565258000027863</v>
+        <v>-0</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -9767,40 +9767,40 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>-0.1056843120483774</v>
+        <v>-0.05666607244405398</v>
       </c>
       <c r="BZ17" t="n">
-        <v>-0.1203195043090184</v>
+        <v>-0</v>
       </c>
       <c r="CA17" t="n">
-        <v>0</v>
+        <v>0.1683387603908842</v>
       </c>
       <c r="CB17" t="n">
         <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0</v>
+        <v>0.1448589669841432</v>
       </c>
       <c r="CE17" t="n">
-        <v>-0.07119464628583055</v>
+        <v>-0</v>
       </c>
       <c r="CF17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.02423420667087789</v>
+        <v>0.07634939222974349</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.03446086019550221</v>
+        <v>-0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>-0</v>
+        <v>-0.1933611462850432</v>
       </c>
       <c r="CK17" t="n">
         <v>-0</v>
@@ -9809,133 +9809,133 @@
         <v>-0</v>
       </c>
       <c r="CM17" t="n">
-        <v>-0</v>
+        <v>0.05494515720513895</v>
       </c>
       <c r="CN17" t="n">
-        <v>-0.000498903601414934</v>
+        <v>-0</v>
       </c>
       <c r="CO17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP17" t="n">
         <v>-0</v>
       </c>
       <c r="CQ17" t="n">
-        <v>-0.01920824413857</v>
+        <v>0.003397744884367431</v>
       </c>
       <c r="CR17" t="n">
-        <v>-0.05108851735535689</v>
+        <v>0</v>
       </c>
       <c r="CS17" t="n">
-        <v>-0</v>
+        <v>0.08843144860062277</v>
       </c>
       <c r="CT17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU17" t="n">
         <v>-0</v>
       </c>
       <c r="CV17" t="n">
-        <v>-0</v>
+        <v>0.1396483131396592</v>
       </c>
       <c r="CW17" t="n">
-        <v>-0.06119511950653728</v>
+        <v>0</v>
       </c>
       <c r="CX17" t="n">
         <v>0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.01691371468158711</v>
+        <v>0.03579990998643143</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.02458181411993014</v>
+        <v>0</v>
       </c>
       <c r="DB17" t="n">
-        <v>0</v>
+        <v>-0.2026659234563461</v>
       </c>
       <c r="DC17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD17" t="n">
         <v>0</v>
       </c>
       <c r="DE17" t="n">
-        <v>0</v>
+        <v>-0.07436399987883278</v>
       </c>
       <c r="DF17" t="n">
-        <v>-0.01325310256138463</v>
+        <v>-0</v>
       </c>
       <c r="DG17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0003399694538614932</v>
+        <v>0.0003170951838221374</v>
       </c>
       <c r="DJ17" t="n">
-        <v>-0.02268182259716699</v>
+        <v>-0</v>
       </c>
       <c r="DK17" t="n">
-        <v>0</v>
+        <v>-0.1139011071579989</v>
       </c>
       <c r="DL17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN17" t="n">
-        <v>0</v>
+        <v>-0.008091979210067539</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.005364822405717073</v>
+        <v>-0</v>
       </c>
       <c r="DP17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ17" t="n">
         <v>-0</v>
       </c>
       <c r="DR17" t="n">
-        <v>-0.02149419443259858</v>
+        <v>0.009525193781413603</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0698705471205104</v>
+        <v>-0</v>
       </c>
       <c r="DT17" t="n">
-        <v>-0</v>
+        <v>0.1227311620693472</v>
       </c>
       <c r="DU17" t="n">
         <v>0</v>
       </c>
       <c r="DV17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW17" t="n">
-        <v>0</v>
+        <v>0.06486922353891679</v>
       </c>
       <c r="DX17" t="n">
-        <v>-0.01327667563081028</v>
+        <v>-0</v>
       </c>
       <c r="DY17" t="n">
         <v>-0</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA17" t="n">
-        <v>-1.36885597373331e-06</v>
+        <v>0.03743079410219233</v>
       </c>
       <c r="EB17" t="n">
-        <v>0.01580548131217532</v>
+        <v>-0</v>
       </c>
       <c r="EC17" t="n">
-        <v>0</v>
+        <v>-0.08903242236466911</v>
       </c>
       <c r="ED17" t="n">
         <v>-0</v>
@@ -9944,79 +9944,79 @@
         <v>-0</v>
       </c>
       <c r="EF17" t="n">
-        <v>0</v>
+        <v>0.183943966085595</v>
       </c>
       <c r="EG17" t="n">
-        <v>-0.1101377115039435</v>
+        <v>-0</v>
       </c>
       <c r="EH17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.05799057615082243</v>
+        <v>0.08308201341836947</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.03087491930084813</v>
+        <v>-0</v>
       </c>
       <c r="EL17" t="n">
-        <v>-0</v>
+        <v>-0.171832125665543</v>
       </c>
       <c r="EM17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO17" t="n">
-        <v>0</v>
+        <v>0.1123848320037978</v>
       </c>
       <c r="EP17" t="n">
-        <v>-0.009315586264245907</v>
+        <v>-0</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ER17" t="n">
         <v>0</v>
       </c>
       <c r="ES17" t="n">
-        <v>-0.0114455043955695</v>
+        <v>0.01671325084724711</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.08177317125756613</v>
+        <v>-0</v>
       </c>
       <c r="EU17" t="n">
-        <v>0</v>
+        <v>-0.1813385320283836</v>
       </c>
       <c r="EV17" t="n">
         <v>0</v>
       </c>
       <c r="EW17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX17" t="n">
-        <v>0</v>
+        <v>0.1212510544120436</v>
       </c>
       <c r="EY17" t="n">
-        <v>-0.06830769517983383</v>
+        <v>-0</v>
       </c>
       <c r="EZ17" t="n">
         <v>-0</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.02173382615906034</v>
+        <v>0.07265685618567719</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.0421811339226113</v>
+        <v>-0</v>
       </c>
       <c r="FD17" t="n">
-        <v>-0</v>
+        <v>-0.2340462440564902</v>
       </c>
       <c r="FE17" t="n">
         <v>-0</v>
@@ -10025,37 +10025,37 @@
         <v>-0</v>
       </c>
       <c r="FG17" t="n">
-        <v>0</v>
+        <v>-0.05162643388548675</v>
       </c>
       <c r="FH17" t="n">
-        <v>-0.03621841640231765</v>
+        <v>0</v>
       </c>
       <c r="FI17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK17" t="n">
-        <v>0.02447409536899001</v>
+        <v>0.02160909731547177</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.04429748921492158</v>
+        <v>0</v>
       </c>
       <c r="FM17" t="n">
-        <v>-0</v>
+        <v>-0.01781813842848612</v>
       </c>
       <c r="FN17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO17" t="n">
         <v>-0</v>
       </c>
       <c r="FP17" t="n">
-        <v>-0</v>
+        <v>0.2816022199718361</v>
       </c>
       <c r="FQ17" t="n">
-        <v>-0.02348369076153227</v>
+        <v>0</v>
       </c>
       <c r="FR17" t="n">
         <v>0</v>
@@ -10064,46 +10064,46 @@
         <v>-0</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.00590077750462062</v>
+        <v>0.0368265136483726</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.07046877172265521</v>
+        <v>0</v>
       </c>
       <c r="FV17" t="n">
-        <v>0</v>
+        <v>0.2082774931575647</v>
       </c>
       <c r="FW17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX17" t="n">
         <v>-0</v>
       </c>
       <c r="FY17" t="n">
-        <v>-0</v>
+        <v>0.01431076271229588</v>
       </c>
       <c r="FZ17" t="n">
-        <v>0.01507123689317512</v>
+        <v>0</v>
       </c>
       <c r="GA17" t="n">
         <v>0</v>
       </c>
       <c r="GB17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.01304776288308177</v>
+        <v>-0</v>
       </c>
       <c r="GE17" t="n">
-        <v>0</v>
+        <v>-0.06766612217032594</v>
       </c>
       <c r="GF17" t="n">
         <v>0</v>
       </c>
       <c r="GG17" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
